--- a/noptien/k177.xlsx
+++ b/noptien/k177.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\learn\noptien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFEDFA45-0BF3-44E6-80E4-6D0E9B309FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F521B977-730B-4FEA-8569-652087CCB2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14880" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="HD" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Hoc_Phi" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoc_Phi!$A$1:$O$107</definedName>
+  </definedNames>
   <calcPr calcId="999999"/>
 </workbook>
 </file>
@@ -2217,6 +2220,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2230,16 +2242,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3865,10 +3868,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I71" sqref="I71:I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3889,46 +3893,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="50" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="72" t="s">
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="73" t="s">
+      <c r="H1" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="I1" s="68" t="s">
+      <c r="I1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="72" t="s">
+      <c r="J1" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="74" t="s">
+      <c r="K1" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="74" t="s">
+      <c r="L1" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="74" t="s">
+      <c r="M1" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="N1" s="74" t="s">
+      <c r="N1" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="74" t="s">
+      <c r="O1" s="69" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="51" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="70"/>
+    <row r="2" spans="1:15" s="51" customFormat="1" ht="17.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="73"/>
       <c r="B2" s="60" t="s">
         <v>27</v>
       </c>
@@ -3944,17 +3948,17 @@
       <c r="F2" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-    </row>
-    <row r="3" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="70"/>
+      <c r="N2" s="70"/>
+      <c r="O2" s="70"/>
+    </row>
+    <row r="3" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="54">
         <v>1</v>
       </c>
@@ -4001,7 +4005,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="45">
         <v>2</v>
       </c>
@@ -4048,7 +4052,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="45">
         <v>3</v>
       </c>
@@ -4095,7 +4099,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="45">
         <v>4</v>
       </c>
@@ -4142,7 +4146,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="45">
         <v>5</v>
       </c>
@@ -4189,7 +4193,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="45">
         <v>6</v>
       </c>
@@ -4236,7 +4240,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="45">
         <v>7</v>
       </c>
@@ -4283,7 +4287,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45">
         <v>8</v>
       </c>
@@ -4330,7 +4334,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45">
         <v>9</v>
       </c>
@@ -4377,7 +4381,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="45">
         <v>10</v>
       </c>
@@ -4424,7 +4428,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="45">
         <v>11</v>
       </c>
@@ -4471,7 +4475,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="45">
         <v>12</v>
       </c>
@@ -4518,7 +4522,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45">
         <v>13</v>
       </c>
@@ -4565,7 +4569,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="45">
         <v>14</v>
       </c>
@@ -4612,7 +4616,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45">
         <v>15</v>
       </c>
@@ -4659,7 +4663,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45">
         <v>16</v>
       </c>
@@ -4706,7 +4710,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45">
         <v>17</v>
       </c>
@@ -4753,7 +4757,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="45">
         <v>18</v>
       </c>
@@ -4800,7 +4804,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="45">
         <v>19</v>
       </c>
@@ -4847,7 +4851,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="45">
         <v>20</v>
       </c>
@@ -4894,7 +4898,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="45">
         <v>21</v>
       </c>
@@ -4941,7 +4945,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="45">
         <v>22</v>
       </c>
@@ -4988,7 +4992,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="45">
         <v>23</v>
       </c>
@@ -5035,7 +5039,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="45">
         <v>24</v>
       </c>
@@ -5082,7 +5086,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="45">
         <v>25</v>
       </c>
@@ -5129,7 +5133,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="45">
         <v>26</v>
       </c>
@@ -5176,7 +5180,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="45">
         <v>27</v>
       </c>
@@ -5223,7 +5227,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="64" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" s="64" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="45">
         <v>28</v>
       </c>
@@ -5271,7 +5275,7 @@
       </c>
       <c r="P30" s="52"/>
     </row>
-    <row r="31" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="45">
         <v>29</v>
       </c>
@@ -5318,7 +5322,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:16" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="45">
         <v>30</v>
       </c>
@@ -5365,7 +5369,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="33" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="45">
         <v>31</v>
       </c>
@@ -5412,7 +5416,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="34" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="45">
         <v>32</v>
       </c>
@@ -5459,7 +5463,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="45">
         <v>33</v>
       </c>
@@ -5506,7 +5510,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="45">
         <v>34</v>
       </c>
@@ -5553,7 +5557,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="45">
         <v>35</v>
       </c>
@@ -5600,7 +5604,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="45">
         <v>36</v>
       </c>
@@ -5647,7 +5651,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="39" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="45">
         <v>37</v>
       </c>
@@ -5694,7 +5698,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="45">
         <v>38</v>
       </c>
@@ -5741,7 +5745,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="45">
         <v>39</v>
       </c>
@@ -5788,7 +5792,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="45">
         <v>40</v>
       </c>
@@ -5835,7 +5839,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="45">
         <v>41</v>
       </c>
@@ -5882,7 +5886,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="44" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="45">
         <v>42</v>
       </c>
@@ -5929,7 +5933,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="45">
         <v>43</v>
       </c>
@@ -5976,7 +5980,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="45">
         <v>44</v>
       </c>
@@ -6023,7 +6027,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="45">
         <v>45</v>
       </c>
@@ -6070,7 +6074,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="45">
         <v>46</v>
       </c>
@@ -6117,7 +6121,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="45">
         <v>47</v>
       </c>
@@ -6164,7 +6168,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="45">
         <v>48</v>
       </c>
@@ -6211,7 +6215,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="45">
         <v>49</v>
       </c>
@@ -6258,7 +6262,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="45">
         <v>50</v>
       </c>
@@ -6305,7 +6309,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="53" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="45">
         <v>51</v>
       </c>
@@ -6352,7 +6356,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="54" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="45">
         <v>52</v>
       </c>
@@ -6399,7 +6403,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="45">
         <v>53</v>
       </c>
@@ -6446,7 +6450,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="45">
         <v>54</v>
       </c>
@@ -6493,7 +6497,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="45">
         <v>55</v>
       </c>
@@ -6540,7 +6544,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="45">
         <v>56</v>
       </c>
@@ -6587,7 +6591,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="59" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="45">
         <v>57</v>
       </c>
@@ -6634,7 +6638,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="60" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="45">
         <v>58</v>
       </c>
@@ -6681,7 +6685,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="45">
         <v>59</v>
       </c>
@@ -6728,7 +6732,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="62" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="45">
         <v>60</v>
       </c>
@@ -6775,7 +6779,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="45">
         <v>61</v>
       </c>
@@ -6822,7 +6826,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="64" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="45">
         <v>62</v>
       </c>
@@ -6869,7 +6873,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="65" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="45">
         <v>63</v>
       </c>
@@ -6916,7 +6920,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="66" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="45">
         <v>64</v>
       </c>
@@ -6963,7 +6967,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="45">
         <v>65</v>
       </c>
@@ -7010,7 +7014,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="68" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="45">
         <v>66</v>
       </c>
@@ -7057,7 +7061,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="69" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="45">
         <v>67</v>
       </c>
@@ -7104,7 +7108,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="45">
         <v>68</v>
       </c>
@@ -7243,7 +7247,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="73" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="45">
         <v>71</v>
       </c>
@@ -7290,7 +7294,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="74" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="45">
         <v>72</v>
       </c>
@@ -7337,7 +7341,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="75" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="45">
         <v>73</v>
       </c>
@@ -7384,7 +7388,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="76" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="45">
         <v>74</v>
       </c>
@@ -7431,7 +7435,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="77" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="45">
         <v>75</v>
       </c>
@@ -7478,7 +7482,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="45">
         <v>76</v>
       </c>
@@ -7525,7 +7529,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="79" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="45">
         <v>77</v>
       </c>
@@ -7572,7 +7576,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="80" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="45">
         <v>78</v>
       </c>
@@ -7619,7 +7623,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="81" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="45">
         <v>79</v>
       </c>
@@ -7666,7 +7670,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="82" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="45">
         <v>80</v>
       </c>
@@ -7713,7 +7717,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="83" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="45">
         <v>81</v>
       </c>
@@ -7760,7 +7764,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="84" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="45">
         <v>82</v>
       </c>
@@ -7807,7 +7811,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="85" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="45">
         <v>83</v>
       </c>
@@ -7854,7 +7858,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="86" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="45">
         <v>84</v>
       </c>
@@ -7901,7 +7905,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="87" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="45">
         <v>85</v>
       </c>
@@ -7948,7 +7952,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="88" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="45">
         <v>86</v>
       </c>
@@ -7995,7 +7999,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="89" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="45">
         <v>87</v>
       </c>
@@ -8042,7 +8046,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="90" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="45">
         <v>88</v>
       </c>
@@ -8089,7 +8093,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="91" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="45">
         <v>89</v>
       </c>
@@ -8136,7 +8140,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="92" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="45">
         <v>90</v>
       </c>
@@ -8183,7 +8187,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="93" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="45">
         <v>91</v>
       </c>
@@ -8230,7 +8234,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="94" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="45">
         <v>92</v>
       </c>
@@ -8277,7 +8281,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="95" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="45">
         <v>93</v>
       </c>
@@ -8324,7 +8328,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="96" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="45">
         <v>94</v>
       </c>
@@ -8371,7 +8375,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="97" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="45">
         <v>95</v>
       </c>
@@ -8418,7 +8422,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="98" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="45">
         <v>96</v>
       </c>
@@ -8465,7 +8469,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="99" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="45">
         <v>97</v>
       </c>
@@ -8512,7 +8516,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="100" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="45">
         <v>98</v>
       </c>
@@ -8559,7 +8563,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="101" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="45">
         <v>99</v>
       </c>
@@ -8606,7 +8610,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="102" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="45">
         <v>100</v>
       </c>
@@ -8747,7 +8751,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="45">
         <v>103</v>
       </c>
@@ -8794,7 +8798,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="106" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="45">
         <v>104</v>
       </c>
@@ -8841,7 +8845,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:15" s="52" customFormat="1" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:15" s="52" customFormat="1" ht="21.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="45">
         <v>105</v>
       </c>
@@ -10471,18 +10475,29 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <autoFilter ref="A1:O107" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <filterColumn colId="1" showButton="0"/>
+    <filterColumn colId="2" showButton="0"/>
+    <filterColumn colId="3" showButton="0"/>
+    <filterColumn colId="4" showButton="0"/>
+    <filterColumn colId="11">
+      <filters>
+        <filter val="Dương Tuấn Dũng"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="11">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="O1:O2"/>
     <mergeCell ref="K1:K2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
